--- a/hardware/doc-bom.xlsx
+++ b/hardware/doc-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\greenhouse-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\greenhouse-doc\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C4BE6A-54C9-4C1A-AA6A-41FCC731992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E6800-ADDD-4120-A4D1-92AD69927086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>Comment</t>
   </si>
@@ -84,9 +84,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>R_0805_2012Metric</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>SON50P200X200X60-7N-D</t>
   </si>
   <si>
-    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -144,21 +138,12 @@
     <t>R8</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
     <t>J3</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>SOT-23</t>
   </si>
   <si>
@@ -201,12 +186,6 @@
     <t>C2296</t>
   </si>
   <si>
-    <t>R6,R7,R2,R4,R10,R1,R3</t>
-  </si>
-  <si>
-    <t>C3,C2,C1</t>
-  </si>
-  <si>
     <t>R9</t>
   </si>
   <si>
@@ -216,21 +195,12 @@
     <t>Q1,Q2</t>
   </si>
   <si>
-    <t>C6,C7</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
     <t>C8,C9</t>
   </si>
   <si>
-    <t>J5,J4</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
     <t>L_Wuerth_MAPI-4020</t>
   </si>
   <si>
@@ -240,18 +210,12 @@
     <t>SOT50P160X60-6N</t>
   </si>
   <si>
-    <t>C_0603_1608Metric_Pad1.08x0.95mm_HandSolder</t>
-  </si>
-  <si>
     <t>C135238</t>
   </si>
   <si>
     <t>C16780</t>
   </si>
   <si>
-    <t>C14663</t>
-  </si>
-  <si>
     <t>C39148</t>
   </si>
   <si>
@@ -276,16 +240,70 @@
     <t>C17414</t>
   </si>
   <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>C31850</t>
-  </si>
-  <si>
-    <t>C25803</t>
+    <t>R6,R7,R2,R10,R1,R11,R3</t>
+  </si>
+  <si>
+    <t>C3,C2,C1,C11</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>C4,C6,C7</t>
+  </si>
+  <si>
+    <t>D2,D1</t>
+  </si>
+  <si>
+    <t>R5,R4</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>JS102000SAQN</t>
+  </si>
+  <si>
+    <t>DS18B20Z</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>120k</t>
+  </si>
+  <si>
+    <t>BH-18650-PC</t>
+  </si>
+  <si>
+    <t>SW_SPST</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>BH18650PC</t>
+  </si>
+  <si>
+    <t>SW_Tactile_SPST_Angled_PTS645Vx58-2LFS</t>
+  </si>
+  <si>
+    <t>C695837</t>
+  </si>
+  <si>
+    <t>C17621</t>
+  </si>
+  <si>
+    <t>C17436</t>
+  </si>
+  <si>
+    <t>C136000</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,9 +441,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -435,16 +450,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +800,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -821,312 +827,339 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>72</v>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="D25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
